--- a/inst/apps/GreatPlainsBCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/GreatPlainsBCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/GreatPlainsBCGCalc/inst/apps/GreatPlainsBCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD89C28D-AC8D-4585-ACC7-C2688D9FD825}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747848A1-FDF1-4D53-89CB-D663077051F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="4" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
     <sheet name="FileBuild_OutsideBugs" sheetId="13" r:id="rId2"/>
     <sheet name="FileBuild_OutsideFish" sheetId="14" r:id="rId3"/>
     <sheet name="Calc_BCG" sheetId="5" r:id="rId4"/>
+    <sheet name="FileBuild_Merge" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -417,6 +418,21 @@
   </si>
   <si>
     <t>Small_47c, Large_47c, Small_Not_47c, Large_Not_47c</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Input file 1</t>
+  </si>
+  <si>
+    <t>Input file 2</t>
+  </si>
+  <si>
+    <t>xxx_MergeFiles_RESULTS</t>
+  </si>
+  <si>
+    <t>Combined file. All rows and columns in File 1 (Primary) are carried through into the output file. For File 2, only data for rows that match with File 1 via the common identifier are carried through.</t>
   </si>
 </sst>
 </file>
@@ -1184,9 +1200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AE3AB-44D5-4B65-90D2-0BC6561C5612}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,4 +1667,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590F3DA8-2E18-485D-8CD3-8E63217BA56C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/apps/GreatPlainsBCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/GreatPlainsBCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/GreatPlainsBCGCalc/inst/apps/GreatPlainsBCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747848A1-FDF1-4D53-89CB-D663077051F0}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFE0AB9-B80B-4304-9E3B-988BD11E23CF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="4" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="139">
   <si>
     <t>Description</t>
   </si>
@@ -72,123 +72,27 @@
     <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the BCG calculator</t>
   </si>
   <si>
-    <r>
-      <t>Column Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
     <t>Domain (allowable entries)</t>
   </si>
   <si>
-    <t>Null Allowed</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>SAMPLEID</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
-  </si>
-  <si>
-    <t>FFG</t>
-  </si>
-  <si>
     <t>BCG_ATTR</t>
   </si>
   <si>
-    <t>Taxonomic identification of organisms in each sample.</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
     <t>non-negative real number</t>
   </si>
   <si>
-    <t>Number of individuals (not number of taxa).</t>
-  </si>
-  <si>
-    <t>NONTARGET</t>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-  </si>
-  <si>
-    <t>Non-target taxa should be marked “TRUE”.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>number ranging from 0-10</t>
-  </si>
-  <si>
-    <t>Taxa with tolerance values ranging from 0 to 3 are considered ‘intolerant’ to anthropogenic disturbance and are included in the ‘intolerant’ metric calculations. Those with values ranging from 7 to 10 are included in the ‘tolerant’ metrics.</t>
-  </si>
-  <si>
-    <t>Entries should be consistent with the phylogeny.</t>
-  </si>
-  <si>
-    <t>CG, CF, PR, SC, SH, PH;PR</t>
-  </si>
-  <si>
-    <t>Habit types: Burrowers (BU), Climbers (CB), Clingers (CN), Skaters (SK), Sprawlers (SP), and Swimmers (SW). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
-  </si>
-  <si>
-    <t>BU, CB, CN, SK, SP, SW</t>
-  </si>
-  <si>
-    <t>Primary Functional Feeding Group: Collector-Gatherer (CG), Collector-Filterer (CF), Piercer-Predator (PH;PR), Predator (PR), Scraper (SC), or Shredder (SH). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 6</t>
-  </si>
-  <si>
-    <t>BCG Attribute assigned to each taxon. A single taxon can only have one entry.</t>
-  </si>
-  <si>
-    <t>TAXAID</t>
-  </si>
-  <si>
-    <t>N_TAXA</t>
-  </si>
-  <si>
     <t>HABIT</t>
   </si>
   <si>
-    <t>TOLVAL</t>
-  </si>
-  <si>
-    <t>PHYLUM</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
     <t>FAMILY</t>
   </si>
   <si>
@@ -198,9 +102,6 @@
     <t>TROPHIC</t>
   </si>
   <si>
-    <t>Taxonomic identification of organisms in each sample. Note, use scientific name here (e.g., Lepomis macrochirus) rather than common name.</t>
-  </si>
-  <si>
     <t>Subfolder</t>
   </si>
   <si>
@@ -324,21 +225,6 @@
     <t>Values for bug/fish metrics used in the Great Plains BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
   </si>
   <si>
-    <r>
-      <t>Column Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>GreatPlains_BCG_xxxx_Attributes_yyyymmdd</t>
   </si>
   <si>
@@ -360,15 +246,9 @@
     <t>BCG_NUM</t>
   </si>
   <si>
-    <t>Continuous numerical equivalent of BCG_ATTR2 field.  2_MIDDLE = 2.0; 3_BETTER = 3.0;  3_MIDDLE = 3.0; 3_WORSE = 3.5; 4_BETTER = 4; 4_WORSE = 4.5; 5_MIDDLE = 5.0.</t>
-  </si>
-  <si>
     <t>NATIVE</t>
   </si>
   <si>
-    <t>Specifies whether a taxon is native or non-native to the Great Plains region as a whole. Enter "NATIVE" for native taxa, and "NON_NATIVE" for non-native taxa.</t>
-  </si>
-  <si>
     <t>Trophic type: Herbivore (HB), Invertivore (IV), Omnivore (OM), top-carnivore (TC). A single taxon can only have one entry.</t>
   </si>
   <si>
@@ -378,48 +258,18 @@
     <t>Habitat type: benthic (B), fluvial (F), and water-column (W). A single taxon can have multiple entries.</t>
   </si>
   <si>
-    <t>Number of individuals.</t>
-  </si>
-  <si>
     <t>2, 3, 4, 5</t>
   </si>
   <si>
-    <t>Biological Condition Gradient (BCG) taxa attribute assignments for the Great Plains BCG. 2 = highly sensitive; 3 = sensitive ubiquitous; 4 = moderately tolerant; 5 = highly tolerant.</t>
-  </si>
-  <si>
-    <t>BCG attribute assignments that accommodate sub-levels.</t>
-  </si>
-  <si>
-    <t>2_MIDDLE, 3_BETTER, 3_MIDDLE, 3_WORSE, 4_BETTER, 4_WORSE, 5_MIDDLE.</t>
-  </si>
-  <si>
-    <t>2.0, 3.0, 3.5, 4.0, 4.5, 5.0</t>
-  </si>
-  <si>
     <t>NATIVE, NON_NATIVE</t>
   </si>
   <si>
     <t>HB, IV, OM, TC</t>
   </si>
   <si>
-    <t>B, F, W (separate entries with ";")</t>
-  </si>
-  <si>
-    <t>BEARER, BROADCASTER, COMPLEX NEST,  LITHOPHIL, MIGRATORY, SIMPLE NEST (separate entries with ";")</t>
-  </si>
-  <si>
     <t>Reproduction type. Only LITHOPHIL is used for metric calculations. A single taxon can have multiple entries.</t>
   </si>
   <si>
-    <t>INDEX_CLASS</t>
-  </si>
-  <si>
-    <t>Index class determined by Level IV Ecoregion and watershed area (Sq. km): Small_47c = Ecoregion 47c and &lt;100sqkm; Large_47c = Ecoregion 47c and &gt;= 100sqkm; Small_Not_47c = All ecoregions not 47c and &lt;100sqkm; Large_Not_47c = ecoregions not 47c and &gt;= 100sqkm.</t>
-  </si>
-  <si>
-    <t>Small_47c, Large_47c, Small_Not_47c, Large_Not_47c</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
@@ -433,13 +283,187 @@
   </si>
   <si>
     <t>Combined file. All rows and columns in File 1 (Primary) are carried through into the output file. For File 2, only data for rows that match with File 1 via the common identifier are carried through.</t>
+  </si>
+  <si>
+    <t>Bug BCG Models</t>
+  </si>
+  <si>
+    <t>Column Name </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Index_Name</t>
+  </si>
+  <si>
+    <t>IA_Bugs_BCG, KS_Bugs_BCG, MO_Bugs_BCG, NE_Bugs_BCG</t>
+  </si>
+  <si>
+    <t>Tells R which model to apply</t>
+  </si>
+  <si>
+    <t>Index_Class</t>
+  </si>
+  <si>
+    <t>see table below for list of options</t>
+  </si>
+  <si>
+    <t>Tells R which rules and metrics to apply, based on class</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>NA (flexible)</t>
+  </si>
+  <si>
+    <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number)</t>
+  </si>
+  <si>
+    <t>TaxaID</t>
+  </si>
+  <si>
+    <t>Taxon name, using the BCG Operational Taxonomic Unit (OTU)</t>
+  </si>
+  <si>
+    <t>N_Taxa</t>
+  </si>
+  <si>
+    <t>non-negative real number or for large/rare entries (Missouri), -99, 0 or blank</t>
+  </si>
+  <si>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>NonTarget</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE</t>
+  </si>
+  <si>
+    <t>FALSE = target (ok to include in calculations). TRUE = nontarget (not appropriate to include in the Great Plains BCG calculation)</t>
+  </si>
+  <si>
+    <t>BCG_Attr</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5, 6m</t>
+  </si>
+  <si>
+    <t>Great Plains BCG taxa attribute assignments (2, 3, 4, 5, 6m). 2 = highly sensitive; 3 = sensitive ubiquitous; 4 = moderately tolerant; 5 = highly tolerant; 6m = nonnative, moderately tolerant</t>
+  </si>
+  <si>
+    <t>BCG_Attr2</t>
+  </si>
+  <si>
+    <t>4_better, 4_middle, 4_worse</t>
+  </si>
+  <si>
+    <t>Great Plains BCG attribute IV sub-level: 4_better, 4_middle, 4_worse</t>
+  </si>
+  <si>
+    <t>BU, CB, CN, SP, SW</t>
+  </si>
+  <si>
+    <t>Habit: burrowers (BU), climbers (CB), clingers (CN), sprawlers (SP), swimmers (SW). Multiple entries are allowed and are separated with a comma</t>
+  </si>
+  <si>
+    <t>LIFE_CYCLE</t>
+  </si>
+  <si>
+    <t>uni, semi, multi</t>
+  </si>
+  <si>
+    <t>[used in flag metrics] Life Cycle: number of broods or generations of an organism in a year (also referred to as 'voltinism'): univoltine (UNI), semivoltine (SEMI), or multivoltine (MULTI). Multiple entries are allowed and are separated with a comma</t>
+  </si>
+  <si>
+    <t>AirBreather</t>
+  </si>
+  <si>
+    <t>[used in flag metrics] TRUE = air breather, which include: Hemiptera (all families); Coleoptera - all adults other than Elmidae ande Dryopidae, and larvae of Dystiscidae, Hydrophilidae, Hydraenidae, Heteroceridae; Gyrinidae; Haliplidae; Scirtidae; Diptera (Culicidae larvae, Ptychopteridae larvae, Chaoboridae larvae (except Chaoborus sp.), Stratiomyidae, Dolichopodidae and Syrphidae</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>SubClass</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>SubFamily</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Iowa only</t>
+  </si>
+  <si>
+    <t>BugGear</t>
+  </si>
+  <si>
+    <t>Qualitative, Surber, Hess, Artificial Substrate, Low-Flow Artificial Substrate and Anchored Artifical Substrate</t>
+  </si>
+  <si>
+    <t>Iowa only. Used to differentiate Qualitative from Quantitative sample data prior to metric calculations.</t>
+  </si>
+  <si>
+    <t>GP_Fish_BCG</t>
+  </si>
+  <si>
+    <t>Tells R which rules and metrics to apply, based on ecoregion/size class</t>
+  </si>
+  <si>
+    <t>BCG taxa attribute assignments for the Great Plains BCG: 2, 3, 4, 5. 2 = highly sensitive; 3 = sensitive ubiquitous; 4 = moderately tolerant; 5 = highly tolerant.</t>
+  </si>
+  <si>
+    <t>2_MIDDLE, 3_BETTER, 3_MIDDLE, 3_WORSE, 4_BETTER, 4_WORSE, 5_MIDDLE</t>
+  </si>
+  <si>
+    <t>BCG attribute assignments that accommodate sub-levels: 2_MIDDLE, 3_BETTER, 3_MIDDLE, 3_WORSE, 4_BETTER, 4_WORSE, 5_MIDDLE.</t>
+  </si>
+  <si>
+    <t>2.0, 3.0, 3.5, 4, 4.5, 5</t>
+  </si>
+  <si>
+    <t>Continuous numerical equivalent of BCG_ATTR2 field.  2_MIDDLE = 2.0; 3_BETTER = 3.0;  3_MIDDLE = 3.0; 3_WORSE = 3.5; 4_BETTER = 4; 4_WORSE = 4.5; 5_MIDDLE = 5.0. Used for the 'x_BCG_Mean' metric calculation.</t>
+  </si>
+  <si>
+    <t>Specifies whether a taxon is native or non-native to the Great Plains region as a whole</t>
+  </si>
+  <si>
+    <t>B, F, W</t>
+  </si>
+  <si>
+    <t>BEARER, BROADCASTER, COMPLEX NEST, LITHOPHIL, MIGRATORY, SIMPLE NEST</t>
+  </si>
+  <si>
+    <t>taxonomic hierarchy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,25 +480,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,9 +532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,9 +554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -585,7 +594,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -691,7 +700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -833,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -860,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -868,10 +877,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -879,21 +888,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -901,10 +910,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -912,21 +921,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -934,10 +943,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -945,10 +954,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -956,10 +965,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -972,223 +981,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.28515625" style="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1198,258 +1353,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AE3AB-44D5-4B65-90D2-0BC6561C5612}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>114</v>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1485,10 +1619,10 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1496,167 +1630,167 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590F3DA8-2E18-485D-8CD3-8E63217BA56C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1693,26 +1827,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
